--- a/data/trans_camb/IP19C05-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP19C05-Edad-trans_camb.xlsx
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,27</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,19</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>2,85</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,91</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>0,46</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 3,45</t>
+          <t>-1,92; 1,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 3,61</t>
+          <t>-1,89; 1,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 3,46</t>
+          <t>0,39; 6,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 4,35</t>
+          <t>-0,78; 3,51</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 2,82</t>
+          <t>-0,28; 3,32</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 3,24</t>
+          <t>-0,96; 1,83</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>102,61%</t>
+          <t>-11,54%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>96,01%</t>
+          <t>-13,01%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>88,83%</t>
+          <t>471,02%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>155,19%</t>
+          <t>169,15%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>95,83%</t>
+          <t>221,06%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>125,4%</t>
+          <t>76,11%</t>
         </is>
       </c>
     </row>
@@ -871,39 +871,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-47,41; 754,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-57,22; 760,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-55,4; 850,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-24,92; 1050,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-24,99; 439,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-17,68; 461,0</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,85</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>1,55</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 1,1</t>
+          <t>-0,8; 3,45</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 1,1</t>
+          <t>-0,73; 3,61</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,39; 6,78</t>
+          <t>-0,84; 3,46</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 3,51</t>
+          <t>-0,22; 4,35</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 3,32</t>
+          <t>-0,31; 2,82</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 1,83</t>
+          <t>-0,06; 3,24</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-11,54%</t>
+          <t>102,61%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-13,01%</t>
+          <t>96,01%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>471,02%</t>
+          <t>88,83%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>169,15%</t>
+          <t>155,19%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>221,06%</t>
+          <t>95,83%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>76,11%</t>
+          <t>125,4%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,41; 754,02</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,22; 760,52</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,4; 850,64</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,92; 1050,8</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,99; 439,84</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,68; 461,0</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP19C05-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP19C05-Edad-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -762,27 +762,27 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>-0,85</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,85</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>-0,76</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>-0,81</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 1,1</t>
+          <t>-2,59; 1,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 1,1</t>
+          <t>-4,26; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,39; 6,78</t>
+          <t>-2,93; 1,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 3,51</t>
+          <t>-4,26; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 3,32</t>
+          <t>-1,59; 1,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 1,83</t>
+          <t>-2,79; 0,0</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-11,54%</t>
+          <t>-8,23%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-13,01%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>471,02%</t>
+          <t>-25,1%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>169,15%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>221,06%</t>
+          <t>-14,96%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>76,11%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,27</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,19</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>2,98</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,91</t>
+          <t>1,21</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>0,3</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 3,45</t>
+          <t>-3,1; 2,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 3,61</t>
+          <t>-3,42; 1,3</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 3,46</t>
+          <t>0,33; 7,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 4,35</t>
+          <t>-0,77; 3,35</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 2,82</t>
+          <t>-0,37; 3,64</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 3,24</t>
+          <t>-1,37; 1,91</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>102,61%</t>
+          <t>6,88%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>96,01%</t>
+          <t>-39,69%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>88,83%</t>
+          <t>460,39%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>155,19%</t>
+          <t>187,46%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>95,83%</t>
+          <t>139,49%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>125,4%</t>
+          <t>27,89%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1027,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-47,41; 754,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-57,22; 760,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-55,4; 850,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-24,92; 1050,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-24,99; 439,84</t>
+          <t>-49,15; 953,93</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-17,68; 461,0</t>
+          <t>-76,07; 567,77</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>1,68</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>2,83</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,66</t>
+          <t>1,63</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>3,08</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>1,67</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>2,97</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 2,22</t>
+          <t>-0,2; 4,37</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 2,12</t>
+          <t>0,45; 6,67</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,2; 3,45</t>
+          <t>-1,02; 4,52</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,14; 3,32</t>
+          <t>0,41; 7,06</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,17; 2,3</t>
+          <t>-0,1; 3,59</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,09; 2,27</t>
+          <t>0,96; 5,4</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>74,0%</t>
+          <t>226,64%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>71,24%</t>
+          <t>381,66%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>171,83%</t>
+          <t>126,37%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>160,17%</t>
+          <t>239,38%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>121,82%</t>
+          <t>165,74%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>115,11%</t>
+          <t>295,97%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1183,207 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-54,01; 522,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-54,87; 496,75</t>
+          <t>-51,08; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-5,47; 902,71</t>
+          <t>-72,91; 943,62</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-15,93; 836,63</t>
+          <t>-28,83; 1416,37</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>5,29; 421,86</t>
+          <t>-19,99; 954,15</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2,03; 411,11</t>
+          <t>36,66; 1162,58</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0,72</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0,7</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>1,66</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>1,55</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>1,18</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>1,12</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-0,54; 2,24</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-0,63; 2,19</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0,31; 3,59</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0,15; 3,52</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0,15; 2,39</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0,13; 2,27</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>74,0%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>71,24%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>171,83%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>160,17%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>121,82%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>115,11%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-46,38; 708,41</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-56,65; 571,91</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-6,77; 766,34</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-8,28; 811,94</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>3,32; 422,54</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>0,08; 421,96</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/IP19C05-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP19C05-Edad-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -795,27 +795,27 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 1,59</t>
+          <t>-2,56; 2,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 0,0</t>
+          <t>-3,85; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 1,15</t>
+          <t>-3,02; 1,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 0,0</t>
+          <t>-4,43; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 1,37</t>
+          <t>-1,61; 1,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 2,43</t>
+          <t>-2,74; 2,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 1,3</t>
+          <t>-3,6; 1,25</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,33; 7,02</t>
+          <t>0,22; 6,42</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 3,35</t>
+          <t>-0,91; 3,45</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 3,64</t>
+          <t>-0,62; 3,65</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 1,91</t>
+          <t>-1,28; 1,82</t>
         </is>
       </c>
     </row>
@@ -1047,12 +1047,12 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-49,15; 953,93</t>
+          <t>-52,72; 1037,16</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-76,07; 567,77</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 4,37</t>
+          <t>-0,19; 4,9</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,45; 6,67</t>
+          <t>0,39; 6,36</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 4,52</t>
+          <t>-0,68; 4,93</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,41; 7,06</t>
+          <t>0,21; 6,45</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 3,59</t>
+          <t>0,06; 3,67</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,96; 5,4</t>
+          <t>0,96; 5,22</t>
         </is>
       </c>
     </row>
@@ -1188,27 +1188,27 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-51,08; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-72,91; 943,62</t>
+          <t>-70,19; 1462,73</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-28,83; 1416,37</t>
+          <t>-28,92; 1368,52</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-19,99; 954,15</t>
+          <t>-14,7; 858,8</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>36,66; 1162,58</t>
+          <t>29,84; 1098,72</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 2,24</t>
+          <t>-0,67; 2,19</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 2,19</t>
+          <t>-0,59; 2,4</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,31; 3,59</t>
+          <t>0,12; 3,43</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,15; 3,52</t>
+          <t>0,07; 3,28</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,15; 2,39</t>
+          <t>0,14; 2,31</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,13; 2,27</t>
+          <t>0,05; 2,27</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-46,38; 708,41</t>
+          <t>-47,69; 537,55</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-56,65; 571,91</t>
+          <t>-50,25; 608,97</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-6,77; 766,34</t>
+          <t>-14,7; 699,31</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-8,28; 811,94</t>
+          <t>-10,06; 794,42</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>3,32; 422,54</t>
+          <t>3,68; 457,47</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>0,08; 421,96</t>
+          <t>-0,67; 432,48</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP19C05-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP19C05-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -527,13 +527,13 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="F1" s="3" t="n"/>
@@ -757,22 +757,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>-0,19</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>-0,76</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>-0,07</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
         <is>
           <t>-0,85</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-0,19</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-0,76</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 2,23</t>
+          <t>-2,39; 1,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 0,0</t>
+          <t>-4,22; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 1,14</t>
+          <t>-2,81; 1,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 0,0</t>
+          <t>-4,23; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 1,36</t>
+          <t>-1,66; 1,35</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 0,0</t>
+          <t>-2,84; 0,0</t>
         </is>
       </c>
     </row>
@@ -833,17 +833,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>-25,1%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>-8,23%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-25,1%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -913,22 +913,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>2,98</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1,21</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>0,1</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>-0,59</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>2,98</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>1,21</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 2,79</t>
+          <t>0,41; 6,55</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 1,25</t>
+          <t>-0,94; 3,52</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,22; 6,42</t>
+          <t>-2,81; 2,65</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 3,45</t>
+          <t>-4,24; 1,31</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 3,65</t>
+          <t>-0,41; 3,78</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 1,82</t>
+          <t>-1,62; 1,75</t>
         </is>
       </c>
     </row>
@@ -989,22 +989,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>460,39%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>187,46%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>6,88%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
         <is>
           <t>-39,69%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>460,39%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>187,46%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1047,12 +1047,12 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-52,72; 1037,16</t>
+          <t>-53,92; 1092,57</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,08; 495,47</t>
         </is>
       </c>
     </row>
@@ -1069,22 +1069,22 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>1,63</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>3,08</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>1,68</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>2,83</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>1,63</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>3,08</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 4,9</t>
+          <t>-0,76; 4,7</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,39; 6,36</t>
+          <t>0,04; 7,01</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 4,93</t>
+          <t>-0,35; 4,74</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,21; 6,45</t>
+          <t>0,17; 6,49</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,06; 3,67</t>
+          <t>-0,13; 3,49</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,96; 5,22</t>
+          <t>1,06; 5,4</t>
         </is>
       </c>
     </row>
@@ -1145,22 +1145,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>126,37%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>239,38%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>226,64%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="F18" s="2" t="inlineStr">
         <is>
           <t>381,66%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>126,37%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>239,38%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,6; 1138,37</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,68; 1250,4</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-70,19; 1462,73</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-28,92; 1368,52</t>
+          <t>-47,9; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-14,7; 858,8</t>
+          <t>-22,18; 733,32</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>29,84; 1098,72</t>
+          <t>12,99; 1162,14</t>
         </is>
       </c>
     </row>
@@ -1225,22 +1225,22 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>1,66</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>1,55</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
           <t>0,72</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="F20" s="2" t="inlineStr">
         <is>
           <t>0,7</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>1,66</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>1,55</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 2,19</t>
+          <t>0,2; 3,45</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 2,4</t>
+          <t>0,14; 3,32</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,12; 3,43</t>
+          <t>-0,61; 2,22</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,07; 3,28</t>
+          <t>-0,66; 2,12</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,14; 2,31</t>
+          <t>0,17; 2,3</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,05; 2,27</t>
+          <t>0,09; 2,27</t>
         </is>
       </c>
     </row>
@@ -1301,22 +1301,22 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>171,83%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>160,17%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
           <t>74,0%</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="F22" s="2" t="inlineStr">
         <is>
           <t>71,24%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>171,83%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>160,17%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-47,69; 537,55</t>
+          <t>-5,47; 902,71</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-50,25; 608,97</t>
+          <t>-15,93; 836,63</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-14,7; 699,31</t>
+          <t>-54,01; 522,94</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-10,06; 794,42</t>
+          <t>-54,87; 496,75</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>3,68; 457,47</t>
+          <t>5,29; 421,86</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 432,48</t>
+          <t>2,03; 411,11</t>
         </is>
       </c>
     </row>
